--- a/data/trans_dic/P25_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece asma</t>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>13,06%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,49%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>11,01%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,9</t>
+          <t>4,4; 14,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 15,1</t>
+          <t>4,86; 15,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,93</t>
+          <t>2,86; 14,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 20,33</t>
+          <t>2,85; 14,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,11</t>
+          <t>6,96; 19,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,72</t>
+          <t>5,54; 17,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,17</t>
+          <t>3,38; 11,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 14,51</t>
+          <t>2,38; 8,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,3</t>
+          <t>3,0; 10,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,2</t>
+          <t>2,21; 10,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,99</t>
+          <t>4,4; 15,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 15,92</t>
+          <t>4,36; 13,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 11,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 11,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 10,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 10,38</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 15,52</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 14,26</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,52 +915,82 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,4%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>11,45%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,44%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>8,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 11,65</t>
+          <t>3,33; 10,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 10,81</t>
+          <t>3,27; 10,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 17,21</t>
+          <t>3,29; 16,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,45</t>
+          <t>4,56; 14,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 14,44</t>
+          <t>2,0; 11,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,64</t>
+          <t>2,51; 11,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,4</t>
+          <t>4,32; 13,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,64</t>
+          <t>3,58; 10,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,86</t>
+          <t>4,22; 10,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,0</t>
+          <t>6,68; 16,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,15</t>
+          <t>7,26; 17,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,82</t>
+          <t>7,15; 16,98</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 10,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 9,08</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 12,29</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 14,18</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 12,31</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 12,59</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,1%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>7,35%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>7,75%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,37</t>
+          <t>4,81; 12,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,01</t>
+          <t>2,15; 6,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,19</t>
+          <t>3,4; 8,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,06</t>
+          <t>4,31; 11,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,7</t>
+          <t>4,87; 12,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,94</t>
+          <t>3,5; 11,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,48</t>
+          <t>3,56; 9,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,09</t>
+          <t>3,94; 9,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,3</t>
+          <t>3,87; 8,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,18</t>
+          <t>6,99; 15,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,92</t>
+          <t>4,63; 11,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,87</t>
+          <t>7,0; 15,36</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 9,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 6,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 8,04</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 12,21</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 10,53</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 11,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,01%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>8,81%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>8,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,95</t>
+          <t>2,16; 7,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,54</t>
+          <t>2,77; 7,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,99</t>
+          <t>2,17; 6,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,04</t>
+          <t>2,54; 8,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,18</t>
+          <t>1,96; 7,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,24</t>
+          <t>3,83; 10,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,83</t>
+          <t>4,23; 10,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,91</t>
+          <t>4,49; 9,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,66</t>
+          <t>5,44; 10,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,7</t>
+          <t>7,89; 15,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,8</t>
+          <t>5,88; 13,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,23</t>
+          <t>5,66; 13,6</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 7,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 7,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 7,6</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 10,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 9,21</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 10,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>5,88%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>7,41%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 14,9</t>
+          <t>1,82; 14,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,26</t>
+          <t>1,87; 6,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,74</t>
+          <t>2,66; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 10,15</t>
+          <t>1,65; 12,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,27</t>
+          <t>2,73; 10,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,48</t>
+          <t>3,72; 10,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,81</t>
+          <t>3,05; 9,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 13,8</t>
+          <t>4,28; 10,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 10,12</t>
+          <t>3,85; 9,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,42</t>
+          <t>3,34; 10,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,8</t>
+          <t>5,89; 13,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,7</t>
+          <t>6,69; 14,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 9,56</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 7,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 8,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 9,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 10,57</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 11,84</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,35%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>5,32%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,38</t>
+          <t>3,46; 11,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,55</t>
+          <t>2,53; 9,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,99</t>
+          <t>1,74; 7,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,98</t>
+          <t>1,51; 8,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,42</t>
+          <t>0,96; 9,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,67</t>
+          <t>0,73; 7,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 14,31</t>
+          <t>4,42; 13,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 12,75</t>
+          <t>2,28; 8,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,07</t>
+          <t>5,96; 17,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,03</t>
+          <t>7,28; 23,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,44</t>
+          <t>3,09; 11,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,85</t>
+          <t>6,53; 16,87</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 11,41</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 7,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 12,46</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 15,92</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 9,13</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 11,18</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>8,49%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>5,64%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>7,55%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,82</t>
+          <t>5,0; 8,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,74</t>
+          <t>4,23; 7,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,61</t>
+          <t>4,16; 7,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,28</t>
+          <t>4,77; 8,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,4</t>
+          <t>5,07; 8,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,98</t>
+          <t>5,0; 8,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 8,54</t>
+          <t>5,51; 8,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,39</t>
+          <t>4,74; 7,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,77</t>
+          <t>6,06; 9,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,59</t>
+          <t>8,19; 12,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,58</t>
+          <t>6,99; 10,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,78</t>
+          <t>8,53; 11,86</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 7,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,57</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 9,31</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 8,69</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 9,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40815</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48878</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36078</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32233</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5493</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4503</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33069</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25428</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29335</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24213</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3172</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>73883</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>74306</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>65414</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>56447</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8722</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7675</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22084; 71360</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25483; 82487</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14576; 73549</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13421; 66358</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2927; 8267</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2442; 7564</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15829; 54703</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12261; 45775</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15436; 51620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10530; 48059</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1633; 5749</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1681; 5193</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>47368; 108893</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>46374; 116211</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>38045; 103842</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>31557; 98423</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5720; 12290</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5080; 11777</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37463</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36233</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43290</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51356</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2693</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39184</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31933</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37311</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57018</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5405</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>76648</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>68167</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>80601</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>108374</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8098</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8274</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19118; 61572</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18499; 61338</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19541; 100038</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26296; 85023</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1000; 5683</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1207; 5565</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22290; 68437</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18176; 52068</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21857; 56463</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33757; 82895</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3427; 8344</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3289; 7812</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>50284; 116062</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>45292; 97496</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>50822; 136606</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>78004; 153500</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5438; 11954</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5480; 11857</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55464</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26133</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37178</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48175</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43645</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44826</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75834</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5916</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>99037</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69778</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>82005</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>124009</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8825</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9967</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32987; 85701</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14609; 45230</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23124; 58227</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29155; 75509</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2934; 7530</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2129; 6802</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25351; 68351</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28188; 66441</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27616; 64095</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50162; 113676</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2486; 6295</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3839; 8425</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>72507; 137355</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>47565; 97415</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>58879; 112031</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>89581; 170231</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6193; 11997</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7114; 13726</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26536</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29125</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>29434</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3928</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46546</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47198</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>49696</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72784</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73082</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>76323</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>74907</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>102218</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8597</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13999; 46195</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17825; 47349</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13788; 40961</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16658; 54434</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1141; 4431</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2168; 6129</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28894; 69730</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30261; 65090</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35793; 70175</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52156; 100011</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3084; 7219</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3029; 7279</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>52679; 103444</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>53135; 101148</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>53374; 98342</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>75687; 134154</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4894; 10192</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6167; 11971</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23246</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18280</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26283</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25116</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3084</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28352</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34793</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33057</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32122</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4844</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>51598</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>53073</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>59340</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>57237</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6892</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9029; 73627</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9358; 32929</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13115; 53669</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8179; 62631</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1215; 4478</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1649; 4772</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15401; 50304</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21529; 51608</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19823; 50639</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17258; 52429</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2859; 6556</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3118; 6944</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>29692; 95584</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>36903; 76331</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>38407; 88845</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>34732; 94927</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>4701; 9832</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5515; 10771</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>37607</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>28134</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22218</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23680</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>57134</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30583</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69511</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>94262</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4055</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6619</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>94741</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>58718</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>91729</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>117942</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>8033</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18849; 65242</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13399; 49828</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9248; 40020</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8576; 49874</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>451; 4299</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>333; 3434</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31539; 95249</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15849; 56212</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41307; 120788</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>53507; 171516</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1967; 7378</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4157; 10744</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>65537; 143651</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>35017; 88318</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>59849; 152599</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>78209; 207163</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>3173; 10097</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>5194; 12242</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>221131</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>186784</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>190258</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>209995</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19908</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19904</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>247859</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>213580</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>263737</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>356233</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>25703</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>30570</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>468989</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>400364</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>453995</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>566228</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>45611</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>50474</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>172579; 281665</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>145804; 241573</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>143416; 255792</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>164138; 280023</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15305; 25174</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>14999; 25906</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>198476; 304219</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>171109; 260921</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>218970; 327880</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>296054; 455682</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21156; 31630</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25857; 35951</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>405448; 546252</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>342048; 470878</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>387320; 534237</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>480355; 657066</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>39097; 52539</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>43639; 58181</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
